--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="223"/>
   </bookViews>
   <sheets>
     <sheet name="德贤201901考勤明细" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">德贤2019 </t>
     </r>
     <r>
@@ -527,10 +534,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -567,29 +574,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -603,9 +587,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,9 +611,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,16 +656,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,37 +688,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,15 +718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,6 +745,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -756,72 +919,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -829,96 +926,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,45 +950,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,15 +980,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1044,151 +1003,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1711,10 +1718,18 @@
       <c r="C3" s="8">
         <v>9</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1741,7 +1756,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>23.5</v>
+        <v>56</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1757,10 +1772,18 @@
       <c r="C4" s="8">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="8">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1787,7 +1810,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>23.5</v>
+        <v>52.5</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1803,10 +1826,18 @@
       <c r="C5" s="8">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="8">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1833,7 +1864,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>23.5</v>
+        <v>52.5</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>
@@ -1953,7 +1984,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -534,10 +534,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -574,6 +574,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -587,16 +610,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,64 +641,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,23 +666,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +710,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,187 +745,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +950,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,6 +1019,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1003,199 +1051,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1730,11 +1730,21 @@
       <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="8">
+        <v>9</v>
+      </c>
+      <c r="I3" s="8">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8">
+        <v>14</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1756,7 +1766,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1784,11 +1794,21 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="H4" s="8">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8">
+        <v>14</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1810,7 +1830,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>52.5</v>
+        <v>93.5</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1838,11 +1858,21 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="8">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>14</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1864,7 +1894,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>52.5</v>
+        <v>75.5</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -582,7 +582,112 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,54 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,66 +723,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -745,127 +745,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,36 +926,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,41 +954,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,22 +980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,156 +1013,189 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1745,8 +1745,12 @@
       <c r="L3" s="8">
         <v>14</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="M3" s="8">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8">
+        <v>12</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -1766,7 +1770,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1809,8 +1813,12 @@
       <c r="L4" s="8">
         <v>14</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="M4" s="8">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8">
+        <v>12</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -1830,7 +1838,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>93.5</v>
+        <v>117.5</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1873,8 +1881,12 @@
       <c r="L5" s="8">
         <v>14</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="M5" s="8">
+        <v>12</v>
+      </c>
+      <c r="N5" s="8">
+        <v>12</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -1894,7 +1906,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>75.5</v>
+        <v>99.5</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -574,7 +574,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,22 +655,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,62 +693,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,35 +717,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -745,31 +745,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,55 +865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,60 +896,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,12 +954,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -981,21 +994,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1006,15 +1004,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,8 +1026,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,156 +1046,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1751,9 +1751,15 @@
       <c r="N3" s="8">
         <v>12</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="O3" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="P3" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>9.5</v>
+      </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -1770,7 +1776,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>130</v>
+        <v>161.5</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1819,9 +1825,15 @@
       <c r="N4" s="8">
         <v>12</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="O4" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>9</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -1838,7 +1850,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>117.5</v>
+        <v>148</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1887,9 +1899,15 @@
       <c r="N5" s="8">
         <v>12</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="P5" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>9</v>
+      </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -1906,7 +1924,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>99.5</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -535,9 +535,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -574,7 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,8 +610,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,33 +664,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,14 +689,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,23 +704,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,9 +717,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,49 +745,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,121 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,6 +954,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -965,15 +989,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,32 +1008,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,13 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,10 +1057,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,133 +1069,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1760,7 +1760,9 @@
       <c r="Q3" s="8">
         <v>9.5</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="R3" s="8">
+        <v>9</v>
+      </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1776,7 +1778,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>161.5</v>
+        <v>170.5</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1834,7 +1836,9 @@
       <c r="Q4" s="8">
         <v>9</v>
       </c>
-      <c r="R4" s="8"/>
+      <c r="R4" s="8">
+        <v>9</v>
+      </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -1850,7 +1854,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1908,7 +1912,9 @@
       <c r="Q5" s="8">
         <v>9</v>
       </c>
-      <c r="R5" s="8"/>
+      <c r="R5" s="8">
+        <v>9</v>
+      </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
@@ -1924,7 +1930,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -534,10 +534,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -580,9 +580,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,95 +647,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,6 +669,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -710,15 +708,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,187 +745,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,17 +954,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,36 +972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1015,15 +979,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,8 +1001,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,145 +1057,145 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1763,9 +1763,15 @@
       <c r="R3" s="8">
         <v>9</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="S3" s="8">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8">
+        <v>12</v>
+      </c>
+      <c r="U3" s="8">
+        <v>12.5</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
@@ -1778,7 +1784,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>170.5</v>
+        <v>204</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1839,9 +1845,15 @@
       <c r="R4" s="8">
         <v>9</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="S4" s="8">
+        <v>9</v>
+      </c>
+      <c r="T4" s="8">
+        <v>9</v>
+      </c>
+      <c r="U4" s="8">
+        <v>12</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
@@ -1854,7 +1866,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1915,9 +1927,15 @@
       <c r="R5" s="8">
         <v>9</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="S5" s="8">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>9</v>
+      </c>
+      <c r="U5" s="8">
+        <v>12</v>
+      </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
@@ -1930,7 +1948,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -576,34 +576,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -613,6 +585,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,27 +618,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,11 +646,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,25 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,13 +757,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,157 +913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,27 +957,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1003,6 +983,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,166 +1051,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1772,8 +1772,12 @@
       <c r="U3" s="8">
         <v>12.5</v>
       </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="V3" s="8">
+        <v>9</v>
+      </c>
+      <c r="W3" s="8">
+        <v>12</v>
+      </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -1784,7 +1788,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="10">
         <f>SUM(B3:AE3)</f>
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
@@ -1854,8 +1858,12 @@
       <c r="U4" s="8">
         <v>12</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="V4" s="8">
+        <v>9</v>
+      </c>
+      <c r="W4" s="8">
+        <v>9</v>
+      </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -1866,7 +1874,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="10">
         <f>SUM(B4:AE4)</f>
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1936,8 +1944,12 @@
       <c r="U5" s="8">
         <v>12</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="V5" s="8">
+        <v>9</v>
+      </c>
+      <c r="W5" s="8">
+        <v>9</v>
+      </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -1948,7 +1960,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="10">
         <f>SUM(B5:AE5)</f>
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -23,36 +23,7 @@
     <t>合计</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">德贤2019 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月员工工时</t>
-    </r>
+    <t>德贤2019 01月员工工时</t>
   </si>
   <si>
     <t>王  斌</t>
@@ -536,8 +507,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -580,19 +551,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,14 +563,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,14 +574,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +601,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -654,9 +648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,20 +659,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,14 +673,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -708,19 +680,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -745,192 +716,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -954,11 +925,63 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,22 +1005,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,8 +1013,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,31 +1059,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,137 +1077,137 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1221,6 +1229,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1567,15 +1584,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,46 +1686,50 @@
       <c r="AE1" s="2">
         <v>30</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="35.25" spans="1:31">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="35.25" spans="1:32">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="13"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1778,23 +1799,36 @@
       <c r="W3" s="8">
         <v>12</v>
       </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="X3" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>9.5</v>
+      </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="10">
-        <f>SUM(B3:AE3)</f>
-        <v>225</v>
-      </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="10">
+        <f>SUM(B3:AF3)</f>
+        <v>273</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1864,23 +1898,36 @@
       <c r="W4" s="8">
         <v>9</v>
       </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>9.5</v>
+      </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="10">
-        <f>SUM(B4:AE4)</f>
-        <v>205</v>
-      </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="10">
+        <f>SUM(B4:AF4)</f>
+        <v>252.5</v>
+      </c>
+      <c r="AH4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1950,23 +1997,30 @@
       <c r="W5" s="8">
         <v>9</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="10">
-        <f>SUM(B5:AE5)</f>
-        <v>187</v>
-      </c>
-      <c r="AG5" s="5" t="s">
+      <c r="X5" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="10">
+        <f>SUM(B5:AF5)</f>
+        <v>214.5</v>
+      </c>
+      <c r="AH5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -2058,7 +2112,10 @@
       <c r="AE6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="2"/>
     </row>
     <row r="8" spans="19:19">
       <c r="S8" s="9" t="s">
@@ -2067,7 +2124,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A2:AF2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -505,10 +505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -547,6 +547,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -559,8 +589,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +613,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,26 +680,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,69 +694,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -716,6 +716,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -728,6 +764,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -740,48 +836,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -800,103 +896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,11 +962,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,6 +1012,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,206 +1054,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1817,12 +1817,14 @@
       <c r="AC3" s="8">
         <v>9.5</v>
       </c>
-      <c r="AD3" s="8"/>
+      <c r="AD3" s="8">
+        <v>9.5</v>
+      </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="10">
         <f>SUM(B3:AF3)</f>
-        <v>273</v>
+        <v>282.5</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>3</v>
@@ -1916,12 +1918,14 @@
       <c r="AC4" s="8">
         <v>9.5</v>
       </c>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="8">
+        <v>12</v>
+      </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="10">
         <f>SUM(B4:AF4)</f>
-        <v>252.5</v>
+        <v>264.5</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>4</v>

--- a/公司文件/文档资料/201901考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201901考勤明细_德贤.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -57,6 +57,76 @@
   </si>
   <si>
     <t>备注：</t>
+  </si>
+  <si>
+    <t>有五天阿姨不在，补贴洗碗的，一天一人是67.31元</t>
+  </si>
+  <si>
+    <t>元旦节日补贴112.50元</t>
+  </si>
+  <si>
+    <r>
+      <t>未休息补贴是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>134.62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>春节红包是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
   </si>
   <si>
     <r>
@@ -544,13 +614,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -581,44 +644,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -637,9 +662,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,13 +685,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -674,7 +692,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,6 +756,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -716,6 +786,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -735,168 +967,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,17 +1088,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1059,151 +1118,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,13 +1654,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
@@ -1820,11 +1890,15 @@
       <c r="AD3" s="8">
         <v>9.5</v>
       </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
+      <c r="AE3" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>9.5</v>
+      </c>
       <c r="AG3" s="10">
         <f>SUM(B3:AF3)</f>
-        <v>282.5</v>
+        <v>301.5</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>3</v>
@@ -1921,11 +1995,15 @@
       <c r="AD4" s="8">
         <v>12</v>
       </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
+      <c r="AE4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>9</v>
+      </c>
       <c r="AG4" s="10">
         <f>SUM(B4:AF4)</f>
-        <v>264.5</v>
+        <v>282.5</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>4</v>
@@ -2121,9 +2199,27 @@
       </c>
       <c r="AG6" s="2"/>
     </row>
-    <row r="8" spans="19:19">
+    <row r="8" spans="19:20">
       <c r="S8" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="20:20">
+      <c r="T9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="20:20">
+      <c r="T10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="20:20">
+      <c r="T11" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2345,7 @@
     </row>
     <row r="2" ht="35.25" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2705,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="20:21">
@@ -2713,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="20:21">
@@ -2721,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="20:21">
@@ -2729,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="20:21">
@@ -2737,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="20:21">
@@ -2745,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="20:21">
@@ -2753,7 +2849,7 @@
         <v>7</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="20:21">
@@ -2761,7 +2857,7 @@
         <v>8</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="20:21">
@@ -2769,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="20:21">
@@ -2777,7 +2873,7 @@
         <v>10</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="20:21">
@@ -2785,7 +2881,7 @@
         <v>11</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
